--- a/document/excel/dimensional_model_workbook.xlsx
+++ b/document/excel/dimensional_model_workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.nice/Dropbox/git/dimensional-model-workbook/document/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3097F14-CFC7-8B49-AD51-4A41737EFB96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FEAA43-634D-AF4E-A895-6BFE17C9EB0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8000" yWindow="-21140" windowWidth="25600" windowHeight="21140" tabRatio="691" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8000" yWindow="-21140" windowWidth="25600" windowHeight="21140" tabRatio="691" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBA Matrix Worksheet" sheetId="12" r:id="rId1"/>
@@ -1490,7 +1490,7 @@
   </sheetPr>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -2022,7 +2022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Y66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
